--- a/medicine/Pharmacie/Oxcarbazépine/Oxcarbazépine.xlsx
+++ b/medicine/Pharmacie/Oxcarbazépine/Oxcarbazépine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oxcarbaz%C3%A9pine</t>
+          <t>Oxcarbazépine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'oxcarbazépine est un antiépileptique (anticonvulsivant) ainsi qu'un thymorégulateur ; il est principalement utilisé dans le traitement de l'épilepsie partielle avec ou sans généralisation secondaire.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oxcarbaz%C3%A9pine</t>
+          <t>Oxcarbazépine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'oxcarbazépine est une molécule de la famille des carbamides, sa structure chimique se rapproche fortement de celle de la carbamazépine, cependant elle n'en est pas un métabolite.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oxcarbaz%C3%A9pine</t>
+          <t>Oxcarbazépine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les principaux effets indésirables possibles sont :
 très fréquents : fatigue, vertiges, maux de tête, somnolence, nausées, vomissements, troubles de l'accommodation ;
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Oxcarbaz%C3%A9pine</t>
+          <t>Oxcarbazépine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Spécialités contenant de l'oxcarbazépine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Médicaments contenant de l'oxcarbazépine commercialisés en France[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Médicaments contenant de l'oxcarbazépine commercialisés en France :
 Trileptal des laboratoires Novartis ;
 oxcarbazépine générique des laboratoires Mylan et Teva.</t>
         </is>
